--- a/documents/Produktanforderungen/Earned Value Analyse.xlsx
+++ b/documents/Produktanforderungen/Earned Value Analyse.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="140">
   <si>
     <t>Grun</t>
   </si>
@@ -403,6 +403,59 @@
   </si>
   <si>
     <t>Getestet</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Statusauswah</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>l</t>
+    </r>
+  </si>
+  <si>
+    <t>Spike Storys</t>
+  </si>
+  <si>
+    <t>Zustand</t>
+  </si>
+  <si>
+    <t>1. Angelegt</t>
+  </si>
+  <si>
+    <t>3. Wissen intern präsentiert</t>
+  </si>
+  <si>
+    <t>2. Wissen erworben</t>
+  </si>
+  <si>
+    <t>4. Wissen nachhaltig dokumentiert</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>Erworben</t>
+  </si>
+  <si>
+    <t>Präsentiert</t>
+  </si>
+  <si>
+    <t>Dokumentiert</t>
   </si>
 </sst>
 </file>
@@ -433,7 +486,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -452,8 +505,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -470,12 +529,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -483,6 +551,10 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Prozent" xfId="1" builtinId="5"/>
@@ -778,10 +850,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A4:F126"/>
+  <dimension ref="A2:I126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
-      <selection activeCell="D113" sqref="D113"/>
+    <sheetView topLeftCell="A106" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E118" sqref="E118:E119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -793,7 +865,17 @@
     <col min="5" max="5" width="27.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:6">
+    <row r="2" spans="1:9">
+      <c r="I2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="I3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -812,8 +894,11 @@
       <c r="F4" s="2" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="I4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="6" t="s">
         <v>37</v>
       </c>
@@ -824,6 +909,7 @@
         <v>128</v>
       </c>
       <c r="D5" s="6">
+        <f>IF(C5="Getestet",100,IF(C5="Beauftragt",60,50))</f>
         <v>100</v>
       </c>
       <c r="E5" s="6">
@@ -832,8 +918,11 @@
       <c r="F5" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="I5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="6" t="s">
         <v>5</v>
       </c>
@@ -844,6 +933,7 @@
         <v>128</v>
       </c>
       <c r="D6" s="6">
+        <f t="shared" ref="D6:D69" si="0">IF(C6="Getestet",100,IF(C6="Beauftragt",60,50))</f>
         <v>100</v>
       </c>
       <c r="E6" s="6">
@@ -853,7 +943,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:9">
       <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
@@ -864,6 +954,7 @@
         <v>128</v>
       </c>
       <c r="D7" s="6">
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="E7" s="6">
@@ -873,7 +964,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:9">
       <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
@@ -884,6 +975,7 @@
         <v>122</v>
       </c>
       <c r="D8" s="6">
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="E8" s="6">
@@ -893,7 +985,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:9">
       <c r="A9" s="6" t="s">
         <v>8</v>
       </c>
@@ -904,6 +996,7 @@
         <v>122</v>
       </c>
       <c r="D9" s="6">
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="E9" s="6">
@@ -913,7 +1006,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:9">
       <c r="A10" s="6" t="s">
         <v>9</v>
       </c>
@@ -924,6 +1017,7 @@
         <v>123</v>
       </c>
       <c r="D10" s="6">
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="E10" s="6">
@@ -933,17 +1027,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>10</v>
       </c>
       <c r="B11">
         <v>4</v>
       </c>
-      <c r="C11" t="s">
-        <v>128</v>
-      </c>
-      <c r="D11">
+      <c r="C11" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D11" s="6">
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="E11">
@@ -953,17 +1048,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>11</v>
       </c>
       <c r="B12">
         <v>4</v>
       </c>
-      <c r="C12" t="s">
-        <v>128</v>
-      </c>
-      <c r="D12">
+      <c r="C12" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D12" s="6">
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="E12">
@@ -973,17 +1069,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
         <v>12</v>
       </c>
       <c r="B13">
         <v>4</v>
       </c>
-      <c r="C13" t="s">
-        <v>128</v>
-      </c>
-      <c r="D13">
+      <c r="C13" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D13" s="6">
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="E13">
@@ -993,17 +1090,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>13</v>
       </c>
       <c r="B14">
         <v>4</v>
       </c>
-      <c r="C14" t="s">
-        <v>128</v>
-      </c>
-      <c r="D14">
+      <c r="C14" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D14" s="6">
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="E14">
@@ -1013,17 +1111,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
         <v>14</v>
       </c>
       <c r="B15">
         <v>4</v>
       </c>
-      <c r="C15" t="s">
-        <v>128</v>
-      </c>
-      <c r="D15">
+      <c r="C15" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D15" s="6">
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="E15">
@@ -1033,17 +1132,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:9">
       <c r="A16" t="s">
         <v>15</v>
       </c>
       <c r="B16">
         <v>5</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="6">
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="E16">
@@ -1060,10 +1160,11 @@
       <c r="B17">
         <v>5</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="6">
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="E17">
@@ -1080,10 +1181,11 @@
       <c r="B18">
         <v>5</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="6">
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="E18">
@@ -1100,10 +1202,11 @@
       <c r="B19">
         <v>5</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="6">
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="E19">
@@ -1124,6 +1227,7 @@
         <v>122</v>
       </c>
       <c r="D20" s="6">
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="E20" s="6">
@@ -1144,6 +1248,7 @@
         <v>128</v>
       </c>
       <c r="D21" s="6">
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="E21" s="6">
@@ -1160,10 +1265,11 @@
       <c r="B22">
         <v>0.5</v>
       </c>
-      <c r="C22" t="s">
-        <v>128</v>
-      </c>
-      <c r="D22">
+      <c r="C22" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D22" s="6">
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="E22">
@@ -1180,10 +1286,11 @@
       <c r="B23">
         <v>0.5</v>
       </c>
-      <c r="C23" t="s">
-        <v>128</v>
-      </c>
-      <c r="D23">
+      <c r="C23" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D23" s="6">
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="E23">
@@ -1200,10 +1307,11 @@
       <c r="B24">
         <v>0.5</v>
       </c>
-      <c r="C24" t="s">
-        <v>128</v>
-      </c>
-      <c r="D24">
+      <c r="C24" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D24" s="6">
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="E24">
@@ -1220,10 +1328,11 @@
       <c r="B25">
         <v>1</v>
       </c>
-      <c r="C25" t="s">
-        <v>122</v>
-      </c>
-      <c r="D25">
+      <c r="C25" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D25" s="6">
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="E25">
@@ -1240,10 +1349,11 @@
       <c r="B26">
         <v>1</v>
       </c>
-      <c r="C26" t="s">
-        <v>122</v>
-      </c>
-      <c r="D26">
+      <c r="C26" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D26" s="6">
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="E26">
@@ -1260,10 +1370,11 @@
       <c r="B27">
         <v>1</v>
       </c>
-      <c r="C27" t="s">
-        <v>122</v>
-      </c>
-      <c r="D27">
+      <c r="C27" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D27" s="6">
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="E27">
@@ -1280,10 +1391,11 @@
       <c r="B28">
         <v>0.5</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="6">
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="E28">
@@ -1304,6 +1416,7 @@
         <v>128</v>
       </c>
       <c r="D29" s="6">
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="E29" s="6">
@@ -1324,6 +1437,7 @@
         <v>128</v>
       </c>
       <c r="D30" s="6">
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="E30" s="6">
@@ -1344,6 +1458,7 @@
         <v>128</v>
       </c>
       <c r="D31" s="6">
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="E31" s="6">
@@ -1364,6 +1479,7 @@
         <v>122</v>
       </c>
       <c r="D32" s="6">
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="E32" s="6">
@@ -1384,6 +1500,7 @@
         <v>122</v>
       </c>
       <c r="D33" s="6">
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="E33" s="6">
@@ -1404,6 +1521,7 @@
         <v>122</v>
       </c>
       <c r="D34" s="6">
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="E34" s="6">
@@ -1424,6 +1542,7 @@
         <v>123</v>
       </c>
       <c r="D35" s="6">
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="E35" s="6">
@@ -1440,10 +1559,11 @@
       <c r="B36">
         <v>0.5</v>
       </c>
-      <c r="C36" t="s">
-        <v>128</v>
-      </c>
-      <c r="D36">
+      <c r="C36" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D36" s="6">
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="E36">
@@ -1460,10 +1580,11 @@
       <c r="B37">
         <v>0.5</v>
       </c>
-      <c r="C37" t="s">
-        <v>128</v>
-      </c>
-      <c r="D37">
+      <c r="C37" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D37" s="6">
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="E37">
@@ -1480,10 +1601,11 @@
       <c r="B38">
         <v>0.5</v>
       </c>
-      <c r="C38" t="s">
-        <v>122</v>
-      </c>
-      <c r="D38">
+      <c r="C38" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D38" s="6">
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="E38">
@@ -1500,10 +1622,11 @@
       <c r="B39">
         <v>0.5</v>
       </c>
-      <c r="C39" t="s">
-        <v>122</v>
-      </c>
-      <c r="D39">
+      <c r="C39" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D39" s="6">
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="E39">
@@ -1520,10 +1643,11 @@
       <c r="B40">
         <v>1</v>
       </c>
-      <c r="C40" t="s">
-        <v>122</v>
-      </c>
-      <c r="D40">
+      <c r="C40" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D40" s="6">
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="E40">
@@ -1540,10 +1664,11 @@
       <c r="B41">
         <v>1</v>
       </c>
-      <c r="C41" t="s">
-        <v>122</v>
-      </c>
-      <c r="D41">
+      <c r="C41" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D41" s="6">
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="E41">
@@ -1560,10 +1685,11 @@
       <c r="B42">
         <v>1</v>
       </c>
-      <c r="C42" t="s">
-        <v>122</v>
-      </c>
-      <c r="D42">
+      <c r="C42" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D42" s="6">
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="E42">
@@ -1584,6 +1710,7 @@
         <v>128</v>
       </c>
       <c r="D43" s="6">
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="E43" s="6">
@@ -1604,6 +1731,7 @@
         <v>128</v>
       </c>
       <c r="D44" s="6">
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="E44" s="6">
@@ -1624,6 +1752,7 @@
         <v>122</v>
       </c>
       <c r="D45" s="6">
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="E45" s="6">
@@ -1644,6 +1773,7 @@
         <v>122</v>
       </c>
       <c r="D46" s="6">
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="E46" s="6">
@@ -1664,6 +1794,7 @@
         <v>122</v>
       </c>
       <c r="D47" s="6">
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="E47" s="6">
@@ -1684,6 +1815,7 @@
         <v>122</v>
       </c>
       <c r="D48" s="6">
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="E48" s="6">
@@ -1704,6 +1836,7 @@
         <v>122</v>
       </c>
       <c r="D49" s="6">
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="E49" s="6">
@@ -1720,10 +1853,11 @@
       <c r="B50">
         <v>0.5</v>
       </c>
-      <c r="C50" t="s">
-        <v>128</v>
-      </c>
-      <c r="D50">
+      <c r="C50" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D50" s="6">
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="E50">
@@ -1740,10 +1874,11 @@
       <c r="B51">
         <v>0.5</v>
       </c>
-      <c r="C51" t="s">
-        <v>128</v>
-      </c>
-      <c r="D51">
+      <c r="C51" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D51" s="6">
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="E51">
@@ -1760,10 +1895,11 @@
       <c r="B52">
         <v>0.5</v>
       </c>
-      <c r="C52" t="s">
-        <v>122</v>
-      </c>
-      <c r="D52">
+      <c r="C52" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D52" s="6">
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="E52">
@@ -1780,10 +1916,11 @@
       <c r="B53">
         <v>0.5</v>
       </c>
-      <c r="C53" t="s">
-        <v>122</v>
-      </c>
-      <c r="D53">
+      <c r="C53" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D53" s="6">
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="E53">
@@ -1800,10 +1937,11 @@
       <c r="B54">
         <v>1</v>
       </c>
-      <c r="C54" t="s">
-        <v>122</v>
-      </c>
-      <c r="D54">
+      <c r="C54" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D54" s="6">
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="E54">
@@ -1820,10 +1958,11 @@
       <c r="B55">
         <v>1</v>
       </c>
-      <c r="C55" t="s">
-        <v>122</v>
-      </c>
-      <c r="D55">
+      <c r="C55" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D55" s="6">
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="E55">
@@ -1840,10 +1979,11 @@
       <c r="B56">
         <v>1</v>
       </c>
-      <c r="C56" t="s">
-        <v>122</v>
-      </c>
-      <c r="D56">
+      <c r="C56" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D56" s="6">
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="E56">
@@ -1864,6 +2004,7 @@
         <v>123</v>
       </c>
       <c r="D57" s="6">
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="E57" s="6">
@@ -1884,6 +2025,7 @@
         <v>128</v>
       </c>
       <c r="D58" s="6">
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="E58" s="6">
@@ -1904,6 +2046,7 @@
         <v>122</v>
       </c>
       <c r="D59" s="6">
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="E59" s="6">
@@ -1924,6 +2067,7 @@
         <v>122</v>
       </c>
       <c r="D60" s="6">
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="E60" s="6">
@@ -1944,6 +2088,7 @@
         <v>122</v>
       </c>
       <c r="D61" s="6">
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="E61" s="6">
@@ -1964,6 +2109,7 @@
         <v>122</v>
       </c>
       <c r="D62" s="6">
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="E62" s="6">
@@ -1984,6 +2130,7 @@
         <v>122</v>
       </c>
       <c r="D63" s="6">
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="E63" s="6">
@@ -2000,10 +2147,11 @@
       <c r="B64">
         <v>0.14000000000000001</v>
       </c>
-      <c r="C64" t="s">
-        <v>128</v>
-      </c>
-      <c r="D64">
+      <c r="C64" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D64" s="6">
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="E64">
@@ -2020,10 +2168,11 @@
       <c r="B65">
         <v>0.14000000000000001</v>
       </c>
-      <c r="C65" t="s">
-        <v>128</v>
-      </c>
-      <c r="D65">
+      <c r="C65" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D65" s="6">
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="E65">
@@ -2040,10 +2189,11 @@
       <c r="B66">
         <v>0.14000000000000001</v>
       </c>
-      <c r="C66" t="s">
-        <v>122</v>
-      </c>
-      <c r="D66">
+      <c r="C66" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D66" s="6">
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="E66">
@@ -2060,10 +2210,11 @@
       <c r="B67">
         <v>0.14000000000000001</v>
       </c>
-      <c r="C67" t="s">
-        <v>122</v>
-      </c>
-      <c r="D67">
+      <c r="C67" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D67" s="6">
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="E67">
@@ -2080,10 +2231,11 @@
       <c r="B68">
         <v>0.14000000000000001</v>
       </c>
-      <c r="C68" t="s">
-        <v>122</v>
-      </c>
-      <c r="D68">
+      <c r="C68" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D68" s="6">
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="E68">
@@ -2100,10 +2252,11 @@
       <c r="B69">
         <v>0.14000000000000001</v>
       </c>
-      <c r="C69" t="s">
-        <v>128</v>
-      </c>
-      <c r="D69">
+      <c r="C69" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D69" s="6">
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="E69">
@@ -2120,10 +2273,11 @@
       <c r="B70">
         <v>0.14000000000000001</v>
       </c>
-      <c r="C70" t="s">
-        <v>122</v>
-      </c>
-      <c r="D70">
+      <c r="C70" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D70" s="6">
+        <f t="shared" ref="D70:D114" si="1">IF(C70="Getestet",100,IF(C70="Beauftragt",60,50))</f>
         <v>50</v>
       </c>
       <c r="E70">
@@ -2144,6 +2298,7 @@
         <v>128</v>
       </c>
       <c r="D71" s="6">
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="E71" s="6">
@@ -2164,6 +2319,7 @@
         <v>128</v>
       </c>
       <c r="D72" s="6">
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="E72" s="6">
@@ -2184,6 +2340,7 @@
         <v>128</v>
       </c>
       <c r="D73" s="6">
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="E73" s="6">
@@ -2204,6 +2361,7 @@
         <v>122</v>
       </c>
       <c r="D74" s="6">
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="E74" s="6">
@@ -2224,6 +2382,7 @@
         <v>122</v>
       </c>
       <c r="D75" s="6">
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="E75" s="6">
@@ -2244,6 +2403,7 @@
         <v>122</v>
       </c>
       <c r="D76" s="6">
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="E76" s="6">
@@ -2264,6 +2424,7 @@
         <v>122</v>
       </c>
       <c r="D77" s="6">
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="E77" s="6">
@@ -2280,10 +2441,11 @@
       <c r="B78">
         <v>0.5</v>
       </c>
-      <c r="C78" t="s">
-        <v>128</v>
-      </c>
-      <c r="D78">
+      <c r="C78" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D78" s="6">
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="E78">
@@ -2300,10 +2462,11 @@
       <c r="B79">
         <v>0.5</v>
       </c>
-      <c r="C79" t="s">
-        <v>128</v>
-      </c>
-      <c r="D79">
+      <c r="C79" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D79" s="6">
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="E79">
@@ -2320,10 +2483,11 @@
       <c r="B80">
         <v>0.5</v>
       </c>
-      <c r="C80" t="s">
-        <v>128</v>
-      </c>
-      <c r="D80">
+      <c r="C80" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D80" s="6">
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="E80">
@@ -2340,10 +2504,11 @@
       <c r="B81">
         <v>0.5</v>
       </c>
-      <c r="C81" t="s">
-        <v>122</v>
-      </c>
-      <c r="D81">
+      <c r="C81" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D81" s="6">
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="E81">
@@ -2360,10 +2525,11 @@
       <c r="B82">
         <v>1</v>
       </c>
-      <c r="C82" t="s">
-        <v>122</v>
-      </c>
-      <c r="D82">
+      <c r="C82" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D82" s="6">
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="E82">
@@ -2380,10 +2546,11 @@
       <c r="B83">
         <v>1</v>
       </c>
-      <c r="C83" t="s">
-        <v>122</v>
-      </c>
-      <c r="D83">
+      <c r="C83" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D83" s="6">
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="E83">
@@ -2400,10 +2567,11 @@
       <c r="B84">
         <v>1</v>
       </c>
-      <c r="C84" t="s">
-        <v>122</v>
-      </c>
-      <c r="D84">
+      <c r="C84" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D84" s="6">
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="E84">
@@ -2424,6 +2592,7 @@
         <v>123</v>
       </c>
       <c r="D85" s="6">
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="E85" s="6">
@@ -2444,6 +2613,7 @@
         <v>123</v>
       </c>
       <c r="D86" s="6">
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="E86" s="6">
@@ -2460,10 +2630,11 @@
       <c r="B87">
         <v>4</v>
       </c>
-      <c r="C87" t="s">
-        <v>122</v>
-      </c>
-      <c r="D87">
+      <c r="C87" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D87" s="6">
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="E87">
@@ -2480,10 +2651,11 @@
       <c r="B88">
         <v>4</v>
       </c>
-      <c r="C88" t="s">
-        <v>122</v>
-      </c>
-      <c r="D88">
+      <c r="C88" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D88" s="6">
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="E88">
@@ -2504,6 +2676,7 @@
         <v>128</v>
       </c>
       <c r="D89" s="6">
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="E89" s="6">
@@ -2524,6 +2697,7 @@
         <v>128</v>
       </c>
       <c r="D90" s="6">
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="E90" s="6">
@@ -2544,6 +2718,7 @@
         <v>122</v>
       </c>
       <c r="D91" s="6">
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="E91" s="6">
@@ -2564,6 +2739,7 @@
         <v>122</v>
       </c>
       <c r="D92" s="6">
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="E92" s="6">
@@ -2584,6 +2760,7 @@
         <v>122</v>
       </c>
       <c r="D93" s="6">
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="E93" s="6">
@@ -2604,6 +2781,7 @@
         <v>122</v>
       </c>
       <c r="D94" s="6">
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="E94" s="6">
@@ -2624,6 +2802,7 @@
         <v>122</v>
       </c>
       <c r="D95" s="6">
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="E95" s="6">
@@ -2640,10 +2819,11 @@
       <c r="B96">
         <v>6</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C96" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="D96">
+      <c r="D96" s="6">
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="E96">
@@ -2664,6 +2844,7 @@
         <v>123</v>
       </c>
       <c r="D97" s="6">
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="E97" s="6">
@@ -2684,6 +2865,7 @@
         <v>123</v>
       </c>
       <c r="D98" s="6">
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="E98" s="6">
@@ -2700,10 +2882,11 @@
       <c r="B99">
         <v>2</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C99" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="D99">
+      <c r="D99" s="6">
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="E99">
@@ -2724,6 +2907,7 @@
         <v>128</v>
       </c>
       <c r="D100" s="6">
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="E100" s="6">
@@ -2744,6 +2928,7 @@
         <v>128</v>
       </c>
       <c r="D101" s="6">
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="E101" s="6">
@@ -2764,6 +2949,7 @@
         <v>128</v>
       </c>
       <c r="D102" s="6">
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="E102" s="6">
@@ -2780,10 +2966,11 @@
       <c r="B103">
         <v>3</v>
       </c>
-      <c r="C103" t="s">
+      <c r="C103" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="D103">
+      <c r="D103" s="6">
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="E103">
@@ -2804,6 +2991,7 @@
         <v>128</v>
       </c>
       <c r="D104" s="6">
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="E104" s="6">
@@ -2824,6 +3012,7 @@
         <v>128</v>
       </c>
       <c r="D105" s="6">
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="E105" s="6">
@@ -2844,6 +3033,7 @@
         <v>128</v>
       </c>
       <c r="D106" s="6">
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="E106" s="6">
@@ -2864,6 +3054,7 @@
         <v>122</v>
       </c>
       <c r="D107" s="6">
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="E107" s="6">
@@ -2884,6 +3075,7 @@
         <v>122</v>
       </c>
       <c r="D108" s="6">
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="E108" s="6">
@@ -2904,6 +3096,7 @@
         <v>122</v>
       </c>
       <c r="D109" s="6">
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="E109" s="6">
@@ -2924,6 +3117,7 @@
         <v>128</v>
       </c>
       <c r="D110" s="6">
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="E110" s="6">
@@ -2940,10 +3134,11 @@
       <c r="B111">
         <v>2</v>
       </c>
-      <c r="C111" t="s">
-        <v>122</v>
-      </c>
-      <c r="D111">
+      <c r="C111" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D111" s="6">
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="E111">
@@ -2960,10 +3155,11 @@
       <c r="B112">
         <v>2</v>
       </c>
-      <c r="C112" t="s">
-        <v>128</v>
-      </c>
-      <c r="D112">
+      <c r="C112" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D112" s="6">
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="E112">
@@ -2980,10 +3176,11 @@
       <c r="B113">
         <v>2</v>
       </c>
-      <c r="C113" t="s">
-        <v>122</v>
-      </c>
-      <c r="D113">
+      <c r="C113" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D113" s="6">
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="E113">
@@ -3000,10 +3197,11 @@
       <c r="B114">
         <v>2</v>
       </c>
-      <c r="C114" t="s">
-        <v>122</v>
-      </c>
-      <c r="D114">
+      <c r="C114" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D114" s="6">
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="E114">
@@ -3111,6 +3309,11 @@
   <sortState ref="A5:F118">
     <sortCondition ref="F5:F118"/>
   </sortState>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C114">
+      <formula1>$I$3:$I$5</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
@@ -3118,13 +3321,470 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="37.140625" customWidth="1"/>
+    <col min="2" max="2" width="28.5703125" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" customWidth="1"/>
+    <col min="4" max="4" width="25.28515625" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>134</v>
+      </c>
+      <c r="B6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>133</v>
+      </c>
+      <c r="B7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>135</v>
+      </c>
+      <c r="B8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="I13" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="6">
+        <v>1</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="D14" s="6">
+        <f>IF(C14="Angelegt",10,IF(C14="Erworben",30,IF(C14="Präsentiert",70,100)))</f>
+        <v>70</v>
+      </c>
+      <c r="E14" s="6">
+        <f>PRODUCT(B14,D14/100)</f>
+        <v>0.7</v>
+      </c>
+      <c r="F14" s="6">
+        <v>3</v>
+      </c>
+      <c r="I14" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="6">
+        <v>1</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="D15" s="6">
+        <f t="shared" ref="D15:D28" si="0">IF(C15="Angelegt",10,IF(C15="Erworben",30,IF(C15="Präsentiert",70,100)))</f>
+        <v>70</v>
+      </c>
+      <c r="E15" s="6">
+        <f>PRODUCT(B15,D15/100)</f>
+        <v>0.7</v>
+      </c>
+      <c r="F15" s="6">
+        <v>3</v>
+      </c>
+      <c r="I15" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="6">
+        <v>1</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="D16" s="6">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="E16" s="6">
+        <f>PRODUCT(B16,D16/100)</f>
+        <v>0.7</v>
+      </c>
+      <c r="F16" s="6">
+        <v>3</v>
+      </c>
+      <c r="I16" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="6">
+        <v>2</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D17" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E17" s="6">
+        <f>PRODUCT(B17,D17/100)</f>
+        <v>0.2</v>
+      </c>
+      <c r="F17" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="6">
+        <v>2</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D18" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E18" s="6">
+        <f t="shared" ref="E18:E28" si="1">PRODUCT(B18,D18/100)</f>
+        <v>0.2</v>
+      </c>
+      <c r="F18" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="6">
+        <v>1</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="D19" s="6">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="E19" s="6">
+        <f t="shared" si="1"/>
+        <v>0.3</v>
+      </c>
+      <c r="F19" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20">
+        <v>4</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="D20" s="10">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="E20" s="10">
+        <f t="shared" si="1"/>
+        <v>2.8</v>
+      </c>
+      <c r="F20" s="10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21">
+        <v>4</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="D21" s="10">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="E21" s="10">
+        <f t="shared" si="1"/>
+        <v>2.8</v>
+      </c>
+      <c r="F21" s="10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22">
+        <v>4</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="D22" s="10">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="E22" s="10">
+        <f t="shared" si="1"/>
+        <v>2.8</v>
+      </c>
+      <c r="F22" s="10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="D23" s="10">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="E23" s="10">
+        <f t="shared" si="1"/>
+        <v>2.8</v>
+      </c>
+      <c r="F23" s="10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24">
+        <v>4</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="D24" s="10">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="E24" s="10">
+        <f t="shared" si="1"/>
+        <v>1.2</v>
+      </c>
+      <c r="F24" s="10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25">
+        <v>5</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="D25" s="10">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="E25" s="10">
+        <f t="shared" si="1"/>
+        <v>1.5</v>
+      </c>
+      <c r="F25" s="10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26">
+        <v>5</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="D26" s="10">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E26" s="10">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="F26" s="10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27">
+        <v>5</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="D27" s="10">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="E27" s="10">
+        <f t="shared" si="1"/>
+        <v>1.5</v>
+      </c>
+      <c r="F27" s="10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28">
+        <v>5</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="D28" s="10">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="E28" s="10">
+        <f t="shared" si="1"/>
+        <v>1.5</v>
+      </c>
+      <c r="F28" s="10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="B29" s="8">
+        <f>SUM(B14:B28)</f>
+        <v>48</v>
+      </c>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8">
+        <f>SUM(E14:E28)</f>
+        <v>20.2</v>
+      </c>
+      <c r="F29" s="8"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="C31" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D31">
+        <f>E29-B29</f>
+        <v>-27.8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="C32" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D32" s="9">
+        <f>PRODUCT(100/B29,E29)</f>
+        <v>42.083333333333336</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C14:C28">
+      <formula1>$I$13:$I$16</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
 
